--- a/Tables - Ordinal - Treatment at T1 v. Control at T2 - weight_a - Gender.xlsx
+++ b/Tables - Ordinal - Treatment at T1 v. Control at T2 - weight_a - Gender.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U41"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,191 +601,115 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>q1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Things in California going in right/wrong direction</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.495</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.451</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.255</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0.691</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.535</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0.442</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0.399</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0.304</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0.496</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>-0.053 (P = 0.029)</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>-0.052 (P = 0.129)</t>
-        </is>
-      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>-0.255 (P = 0.017)</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>-0.387 (P = 0.025)</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>-0.040 (P = 0.266)</t>
-        </is>
-      </c>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>q1</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Right Direction</t>
+          <t>Things in California going in right/wrong direction</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>43.1%</t>
+          <t>0.495</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>37.3%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>52.4%</t>
-        </is>
-      </c>
+          <t>0.451</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>19.2%</t>
+          <t>0.255</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>55.3%</t>
+          <t>0.691</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>49.3%</t>
+          <t>0.535</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>24.9%</t>
+          <t>0.442</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>23.4%</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
+          <t>0.399</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>21.3%</t>
+          <t>0.304</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>27.1%</t>
+          <t>0.496</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>-18.2%</t>
+          <t>-0.053 (P = 0.029)</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-13.9%</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>-52.4%</t>
-        </is>
-      </c>
+          <t>-0.052 (P = 0.129)</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-19.2%</t>
+          <t>-0.255 (P = 0.017)</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-34.1%</t>
+          <t>-0.387 (P = 0.025)</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-22.2%</t>
+          <t>-0.040 (P = 0.266)</t>
         </is>
       </c>
     </row>
@@ -794,47 +718,47 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Wrong Direction</t>
+          <t>Right Direction</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>43.9%</t>
+          <t>43.1%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>45.3%</t>
+          <t>37.3%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>36.3%</t>
+          <t>52.4%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>56.3%</t>
+          <t>19.2%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>24.7%</t>
+          <t>55.3%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>42.8%</t>
+          <t>49.3%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>31.4%</t>
+          <t>24.9%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>35.3%</t>
+          <t>23.4%</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -844,47 +768,47 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>16.7%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>48.8%</t>
+          <t>21.3%</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>27.5%</t>
+          <t>27.1%</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>-12.5%</t>
+          <t>-18.2%</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-10.0%</t>
+          <t>-13.9%</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-36.3%</t>
+          <t>-52.4%</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-39.6%</t>
+          <t>-19.2%</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>24.0%</t>
+          <t>-34.1%</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-15.2%</t>
+          <t>-22.2%</t>
         </is>
       </c>
     </row>
@@ -893,135 +817,203 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DK/NA</t>
+          <t>Wrong Direction</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13.0%</t>
+          <t>43.9%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>17.4%</t>
+          <t>45.3%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>11.3%</t>
+          <t>36.3%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>24.5%</t>
+          <t>56.3%</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>19.9%</t>
+          <t>24.7%</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>8.0%</t>
+          <t>42.8%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>43.7%</t>
+          <t>31.4%</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>41.3%</t>
+          <t>35.3%</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>83.3%</t>
+          <t>16.7%</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>48.8%</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>45.4%</t>
+          <t>27.5%</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>30.7%</t>
+          <t>-12.5%</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>23.9%</t>
+          <t>-10.0%</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>88.7%</t>
+          <t>-36.3%</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>58.9%</t>
+          <t>-39.6%</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>10.1%</t>
+          <t>24.0%</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>-15.2%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr"/>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DK/NA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.0%</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>17.4%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>11.3%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>24.5%</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>19.9%</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>8.0%</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>43.7%</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>41.3%</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>83.3%</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>30.0%</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>45.4%</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>30.7%</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>23.9%</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>88.7%</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>58.9%</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>10.1%</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>37.5%</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>q2</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>How accurately video describes California's future in 2050</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
@@ -1043,139 +1035,71 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>q2</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>In the middle</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>16.1%</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>18.4%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>38.9%</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>28.9%</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>10.4%</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>13.5%</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>-16.1%</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>-18.4%</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>-38.9%</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>-28.9%</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>-10.4%</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>-13.5%</t>
-        </is>
-      </c>
+          <t>How accurately video describes California's future in 2050</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr"/>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Not well</t>
+          <t>In the middle</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>18.3%</t>
+          <t>16.1%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>14.8%</t>
+          <t>18.4%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>38.9%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>9.8%</t>
+          <t>28.9%</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>29.3%</t>
+          <t>10.4%</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>22.1%</t>
+          <t>13.5%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1210,32 +1134,32 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>-18.3%</t>
+          <t>-16.1%</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-14.8%</t>
+          <t>-18.4%</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-38.9%</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-9.8%</t>
+          <t>-28.9%</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-29.3%</t>
+          <t>-10.4%</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-22.1%</t>
+          <t>-13.5%</t>
         </is>
       </c>
     </row>
@@ -1244,37 +1168,37 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Well</t>
+          <t>Not well</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>65.3%</t>
+          <t>18.3%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>66.4%</t>
+          <t>14.8%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>61.1%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>61.4%</t>
+          <t>9.8%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>58.3%</t>
+          <t>29.3%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>64.3%</t>
+          <t>22.1%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1309,32 +1233,32 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>-65.3%</t>
+          <t>-18.3%</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-66.4%</t>
+          <t>-14.8%</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>-61.1%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-61.4%</t>
+          <t>-9.8%</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-58.3%</t>
+          <t>-29.3%</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>-64.3%</t>
+          <t>-22.1%</t>
         </is>
       </c>
     </row>
@@ -1343,310 +1267,310 @@
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DK/NA</t>
+          <t>Well</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>65.3%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>66.4%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>61.1%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>61.4%</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>58.3%</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>64.3%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>99.8%</t>
+          <t>-65.3%</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>99.6%</t>
+          <t>-66.4%</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>-61.1%</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>-61.4%</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>98.0%</t>
+          <t>-58.3%</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>-64.3%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr"/>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DK/NA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>99.8%</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>99.6%</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>98.0%</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr"/>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>q16_r</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Things in California going in right/wrong direction</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>6.511</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>6.585</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>4.963</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>7.237</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>6.449</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>6.799</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>6.626</t>
-        </is>
-      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>7.000</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>7.386</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>6.942</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0.288 (P = 0.046)</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0.040 (P = 0.844)</t>
-        </is>
-      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>2.037 (P = 0.000)</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>0.150 (P = 0.817)</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>0.493 (P = 0.021)</t>
-        </is>
-      </c>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>q16_r</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>In the middle</t>
+          <t>Things in California going in right/wrong direction</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>11.7%</t>
+          <t>6.511</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11.4%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>14.9%</t>
-        </is>
-      </c>
+          <t>6.585</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>8.9%</t>
+          <t>4.963</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>5.8%</t>
+          <t>7.237</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>12.3%</t>
+          <t>6.449</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>6.799</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>6.0%</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
+          <t>6.626</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>7.000</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>7.0%</t>
+          <t>7.386</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>6.942</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>-6.1%</t>
+          <t>0.288 (P = 0.046)</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-5.4%</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>-14.9%</t>
-        </is>
-      </c>
+          <t>0.040 (P = 0.844)</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr">
         <is>
-          <t>-8.9%</t>
+          <t>2.037 (P = 0.000)</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.150 (P = 0.817)</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>-6.8%</t>
+          <t>0.493 (P = 0.021)</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1579,47 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Not well</t>
+          <t>In the middle</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>13.7%</t>
+          <t>11.7%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12.1%</t>
+          <t>11.4%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>14.9%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>24.4%</t>
+          <t>8.9%</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>17.9%</t>
+          <t>5.8%</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>15.2%</t>
+          <t>12.3%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>7.4%</t>
+          <t>5.7%</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>6.0%</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1710,42 +1634,42 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>7.0%</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>5.5%</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>-6.3%</t>
+          <t>-6.1%</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-3.7%</t>
+          <t>-5.4%</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>-6.7%</t>
+          <t>-14.9%</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>-24.4%</t>
+          <t>-8.9%</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>-17.9%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>-8.4%</t>
+          <t>-6.8%</t>
         </is>
       </c>
     </row>
@@ -1754,47 +1678,47 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Well</t>
+          <t>Not well</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>56.3%</t>
+          <t>13.7%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>53.4%</t>
+          <t>12.1%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>59.9%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>24.4%</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>55.2%</t>
+          <t>17.9%</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>59.2%</t>
+          <t>15.2%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>38.6%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>39.2%</t>
+          <t>8.5%</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1804,47 +1728,47 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>6.0%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>71.5%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>37.6%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>-17.6%</t>
+          <t>-6.3%</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>-14.2%</t>
+          <t>-3.7%</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>-59.9%</t>
+          <t>-6.7%</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>-60.7%</t>
+          <t>-24.4%</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>16.3%</t>
+          <t>-17.9%</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>-21.5%</t>
+          <t>-8.4%</t>
         </is>
       </c>
     </row>
@@ -1853,310 +1777,310 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DK/NA</t>
+          <t>Well</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>18.3%</t>
+          <t>56.3%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23.0%</t>
+          <t>53.4%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>18.5%</t>
+          <t>59.9%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>21.1%</t>
+          <t>55.2%</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>13.4%</t>
+          <t>59.2%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>48.3%</t>
+          <t>38.6%</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>46.3%</t>
+          <t>39.2%</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>94.0%</t>
+          <t>6.0%</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>21.5%</t>
+          <t>71.5%</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>50.1%</t>
+          <t>37.6%</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>-17.6%</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>23.3%</t>
+          <t>-14.2%</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>81.5%</t>
+          <t>-59.9%</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>94.0%</t>
+          <t>-60.7%</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>16.3%</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>36.7%</t>
+          <t>-21.5%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr"/>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>DK/NA</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.3%</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.0%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>18.5%</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>21.1%</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>13.4%</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>48.3%</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>46.3%</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>94.0%</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>21.5%</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>50.1%</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>30.0%</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>23.3%</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>81.5%</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>94.0%</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>36.7%</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr"/>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>q36_r</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Things in California going in right/wrong direction</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>6.178</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>6.376</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>3.310</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>4.456</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>6.035</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>6.413</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>6.445</t>
-        </is>
-      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>5.000</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>9.498</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>6.193</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>0.235 (P = 0.127)</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>0.069 (P = 0.742)</t>
-        </is>
-      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>1.690 (P = 0.039)</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>5.042 (P = 0.000)</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>0.158 (P = 0.498)</t>
-        </is>
-      </c>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>q36_r</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>In the middle</t>
+          <t>Things in California going in right/wrong direction</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>11.1%</t>
+          <t>6.178</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11.0%</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>19.6%</t>
-        </is>
-      </c>
+          <t>6.376</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>3.310</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>4.456</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>6.035</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>6.413</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>7.3%</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
+          <t>6.445</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>6.0%</t>
+          <t>5.000</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>9.498</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>6.193</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>-4.5%</t>
+          <t>0.235 (P = 0.127)</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>-3.7%</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>-19.6%</t>
-        </is>
-      </c>
+          <t>0.069 (P = 0.742)</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>1.690 (P = 0.039)</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>-4.7%</t>
+          <t>5.042 (P = 0.000)</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>0.158 (P = 0.498)</t>
         </is>
       </c>
     </row>
@@ -2165,47 +2089,47 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Not well</t>
+          <t>In the middle</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>23.2%</t>
+          <t>11.1%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>21.2%</t>
+          <t>11.0%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>29.5%</t>
+          <t>19.6%</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>45.9%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>41.8%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>24.7%</t>
+          <t>11.5%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>13.0%</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>14.2%</t>
+          <t>7.3%</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2215,7 +2139,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>6.0%</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2225,37 +2149,37 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>12.8%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>-10.2%</t>
+          <t>-4.5%</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>-7.0%</t>
+          <t>-3.7%</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>-29.5%</t>
+          <t>-19.6%</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>-45.9%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>-41.8%</t>
+          <t>-4.7%</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>-11.9%</t>
+          <t>-5.2%</t>
         </is>
       </c>
     </row>
@@ -2264,47 +2188,47 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Well</t>
+          <t>Not well</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>58.2%</t>
+          <t>23.2%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>59.2%</t>
+          <t>21.2%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>51.0%</t>
+          <t>29.5%</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>32.1%</t>
+          <t>45.9%</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>38.3%</t>
+          <t>41.8%</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>58.0%</t>
+          <t>24.7%</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>39.0%</t>
+          <t>13.0%</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>40.8%</t>
+          <t>14.2%</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2319,42 +2243,42 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>78.5%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>36.5%</t>
+          <t>12.8%</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>-19.3%</t>
+          <t>-10.2%</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>-18.4%</t>
+          <t>-7.0%</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>-51.0%</t>
+          <t>-29.5%</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>-32.1%</t>
+          <t>-45.9%</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>40.2%</t>
+          <t>-41.8%</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>-21.5%</t>
+          <t>-11.9%</t>
         </is>
       </c>
     </row>
@@ -2363,310 +2287,310 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DK/NA</t>
+          <t>Well</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>7.4%</t>
+          <t>58.2%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>8.6%</t>
+          <t>59.2%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>51.0%</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>19.5%</t>
+          <t>32.1%</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>15.1%</t>
+          <t>38.3%</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>5.9%</t>
+          <t>58.0%</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>41.4%</t>
+          <t>39.0%</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>37.7%</t>
+          <t>40.8%</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>94.0%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>21.5%</t>
+          <t>78.5%</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>44.4%</t>
+          <t>36.5%</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>34.0%</t>
+          <t>-19.3%</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>29.1%</t>
+          <t>-18.4%</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>-51.0%</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>74.5%</t>
+          <t>-32.1%</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>6.4%</t>
+          <t>40.2%</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>38.5%</t>
+          <t>-21.5%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr"/>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DK/NA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.4%</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>8.6%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>19.5%</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>15.1%</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>5.9%</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>41.4%</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>37.7%</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>94.0%</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>21.5%</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>44.4%</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>34.0%</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>29.1%</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>74.5%</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>38.5%</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr"/>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>q70</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Things in California going in right/wrong direction</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>7.949</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>8.284</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>6.169</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>8.843</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>7.595</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>8.098</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>8.149</t>
-        </is>
-      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>9.279</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>5.190</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>8.210</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>0.149 (P = 0.265)</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>-0.134 (P = 0.477)</t>
-        </is>
-      </c>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>3.110</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>-3.653 (P = 0.004)</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>0.616 (P = 0.001)</t>
-        </is>
-      </c>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>q70</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>In the middle</t>
+          <t>Things in California going in right/wrong direction</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>7.949</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>6.5%</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
+          <t>8.284</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>15.9%</t>
+          <t>6.169</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>8.843</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>5.9%</t>
+          <t>7.595</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>8.098</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
+          <t>8.149</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>9.279</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>7.0%</t>
+          <t>5.190</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>8.210</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>-4.0%</t>
+          <t>0.149 (P = 0.265)</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>-4.1%</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>-4.5%</t>
-        </is>
-      </c>
+          <t>-0.134 (P = 0.477)</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr">
         <is>
-          <t>-15.9%</t>
+          <t>3.110</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>-3.653 (P = 0.004)</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>-4.0%</t>
+          <t>0.616 (P = 0.001)</t>
         </is>
       </c>
     </row>
@@ -2675,97 +2599,97 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Not well</t>
+          <t>In the middle</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>11.7%</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>8.8%</t>
+          <t>6.5%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>8.4%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>29.0%</t>
+          <t>15.9%</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>8.0%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>14.7%</t>
+          <t>5.9%</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
           <t>7.0%</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>41.8%</t>
-        </is>
-      </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>5.3%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>-4.9%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>-4.1%</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>-8.4%</t>
+          <t>-4.5%</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>-29.0%</t>
+          <t>-15.9%</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>33.8%</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>-9.4%</t>
+          <t>-4.0%</t>
         </is>
       </c>
     </row>
@@ -2774,47 +2698,47 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Well</t>
+          <t>Not well</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>78.1%</t>
+          <t>11.7%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>8.8%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>87.1%</t>
+          <t>8.4%</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>55.2%</t>
+          <t>29.0%</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>86.5%</t>
+          <t>8.0%</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>76.2%</t>
+          <t>14.7%</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>50.6%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>53.9%</t>
+          <t>7.0%</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2824,47 +2748,47 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>16.7%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>29.7%</t>
+          <t>41.8%</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>49.2%</t>
+          <t>5.3%</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>-27.6%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>-26.1%</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>-87.1%</t>
+          <t>-8.4%</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>-38.5%</t>
+          <t>-29.0%</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>-56.8%</t>
+          <t>33.8%</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>-27.0%</t>
+          <t>-9.4%</t>
         </is>
       </c>
     </row>
@@ -2873,310 +2797,310 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DK/NA</t>
+          <t>Well</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>78.1%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>80.0%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>87.1%</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>55.2%</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>86.5%</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>76.2%</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>40.4%</t>
+          <t>50.6%</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>36.5%</t>
+          <t>53.9%</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>83.3%</t>
+          <t>16.7%</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>21.5%</t>
+          <t>29.7%</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>43.7%</t>
+          <t>49.2%</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>36.4%</t>
+          <t>-27.6%</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>31.9%</t>
+          <t>-26.1%</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>-87.1%</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>83.3%</t>
+          <t>-38.5%</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>18.1%</t>
+          <t>-56.8%</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>40.4%</t>
+          <t>-27.0%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr"/>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>DK/NA</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>40.4%</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>36.5%</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>83.3%</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>21.5%</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>43.7%</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>36.4%</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>31.9%</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>83.3%</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>18.1%</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>40.4%</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr"/>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>q85</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Things in California going in right/wrong direction</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.630</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0.594</t>
-        </is>
-      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.909</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>0.540</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>0.667</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>0.640</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>0.602</t>
-        </is>
-      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>0.360</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>0.786</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>0.675</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>0.011 (P = 0.637)</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>0.008 (P = 0.812)</t>
-        </is>
-      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>-0.548</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>0.246 (P = 0.086)</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>0.008 (P = 0.815)</t>
-        </is>
-      </c>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>q85</t>
+        </is>
+      </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Not well</t>
+          <t>Things in California going in right/wrong direction</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>0.630</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>100.0%</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>100.0%</t>
-        </is>
-      </c>
+          <t>0.594</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>0.909</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>0.540</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>0.667</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>60.8%</t>
+          <t>0.640</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>64.1%</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
+          <t>0.602</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>16.7%</t>
+          <t>0.360</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>78.5%</t>
+          <t>0.786</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>58.3%</t>
+          <t>0.675</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>-39.2%</t>
+          <t>0.011 (P = 0.637)</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>-35.9%</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>-100.0%</t>
-        </is>
-      </c>
+          <t>0.008 (P = 0.812)</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr">
         <is>
-          <t>-83.3%</t>
+          <t>-0.548</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>-21.5%</t>
+          <t>0.246 (P = 0.086)</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>-41.7%</t>
+          <t>0.008 (P = 0.815)</t>
         </is>
       </c>
     </row>
@@ -3185,135 +3109,203 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DK/NA</t>
+          <t>Not well</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>39.2%</t>
+          <t>60.8%</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>35.9%</t>
+          <t>64.1%</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>83.3%</t>
+          <t>16.7%</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>21.5%</t>
+          <t>78.5%</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>41.7%</t>
+          <t>58.3%</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>39.2%</t>
+          <t>-39.2%</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>35.9%</t>
+          <t>-35.9%</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>-100.0%</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>83.3%</t>
+          <t>-83.3%</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>21.5%</t>
+          <t>-21.5%</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>41.7%</t>
+          <t>-41.7%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr"/>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>DK/NA</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>39.2%</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>35.9%</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>83.3%</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>21.5%</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>41.7%</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>39.2%</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>35.9%</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>83.3%</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>21.5%</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>41.7%</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr"/>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>q94</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Things in California going in right/wrong direction</t>
-        </is>
-      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
@@ -3335,109 +3327,41 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>q94</t>
+        </is>
+      </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>In the middle</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
+          <t>Things in California going in right/wrong direction</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr"/>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Not well</t>
+          <t>In the middle</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3536,7 +3460,7 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Well</t>
+          <t>Not well</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3635,95 +3559,194 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
+          <t>Well</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>DK/NA</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="N42" t="inlineStr">
         <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
+      <c r="O42" t="inlineStr">
         <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
         <is>
           <t>0.0%</t>
         </is>
